--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H2">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I2">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J2">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N2">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q2">
-        <v>1.324609827366222</v>
+        <v>103.0605330971811</v>
       </c>
       <c r="R2">
-        <v>11.921488446296</v>
+        <v>927.5447978746301</v>
       </c>
       <c r="S2">
-        <v>9.337841246190244E-06</v>
+        <v>0.0007570119375194031</v>
       </c>
       <c r="T2">
-        <v>9.337841246190246E-06</v>
+        <v>0.0007570119375194032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H3">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I3">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J3">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q3">
-        <v>0.01998082753333334</v>
+        <v>0.5357421320416668</v>
       </c>
       <c r="R3">
-        <v>0.1798274478</v>
+        <v>4.821679188375001</v>
       </c>
       <c r="S3">
-        <v>1.408549080786712E-07</v>
+        <v>3.935193979689699E-06</v>
       </c>
       <c r="T3">
-        <v>1.408549080786712E-07</v>
+        <v>3.935193979689699E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H4">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I4">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J4">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N4">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q4">
-        <v>21.54713830221333</v>
+        <v>539.863092473604</v>
       </c>
       <c r="R4">
-        <v>193.92424471992</v>
+        <v>4858.767832262435</v>
       </c>
       <c r="S4">
-        <v>0.0001518966208908741</v>
+        <v>0.003965463726480934</v>
       </c>
       <c r="T4">
-        <v>0.0001518966208908742</v>
+        <v>0.003965463726480935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H5">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I5">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J5">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N5">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q5">
-        <v>2.971091677585778</v>
+        <v>20.05208122432333</v>
       </c>
       <c r="R5">
-        <v>26.739825098272</v>
+        <v>180.46873101891</v>
       </c>
       <c r="S5">
-        <v>2.094472035462456E-05</v>
+        <v>0.0001472888253411978</v>
       </c>
       <c r="T5">
-        <v>2.094472035462457E-05</v>
+        <v>0.0001472888253411979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H6">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I6">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J6">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N6">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q6">
-        <v>40.76353124360978</v>
+        <v>1238.218424401025</v>
       </c>
       <c r="R6">
-        <v>366.871781192488</v>
+        <v>11143.96581960922</v>
       </c>
       <c r="S6">
-        <v>0.0002873626448505168</v>
+        <v>0.009095102658203503</v>
       </c>
       <c r="T6">
-        <v>0.0002873626448505169</v>
+        <v>0.009095102658203505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08656266666666668</v>
+        <v>2.320988333333334</v>
       </c>
       <c r="H7">
-        <v>0.259688</v>
+        <v>6.962965000000001</v>
       </c>
       <c r="I7">
-        <v>0.0006383680276044959</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="J7">
-        <v>0.000638368027604496</v>
+        <v>0.01660966982386677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N7">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q7">
-        <v>23.92868547428089</v>
+        <v>359.530936144855</v>
       </c>
       <c r="R7">
-        <v>215.3581692685281</v>
+        <v>3235.778425303695</v>
       </c>
       <c r="S7">
-        <v>0.0001686853453542114</v>
+        <v>0.002640867482342042</v>
       </c>
       <c r="T7">
-        <v>0.0001686853453542114</v>
+        <v>0.002640867482342043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>399.894996</v>
       </c>
       <c r="I8">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J8">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N8">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q8">
-        <v>2039.774042759681</v>
+        <v>5918.942788116141</v>
       </c>
       <c r="R8">
-        <v>18357.96638483713</v>
+        <v>53270.48509304527</v>
       </c>
       <c r="S8">
-        <v>0.01437939368701627</v>
+        <v>0.04347649108192758</v>
       </c>
       <c r="T8">
-        <v>0.01437939368701628</v>
+        <v>0.04347649108192759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>399.894996</v>
       </c>
       <c r="I9">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J9">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q9">
         <v>30.7685874839</v>
@@ -1013,10 +1013,10 @@
         <v>276.9172873551</v>
       </c>
       <c r="S9">
-        <v>0.0002169032566106273</v>
+        <v>0.0002260049247364069</v>
       </c>
       <c r="T9">
-        <v>0.0002169032566106273</v>
+        <v>0.000226004924736407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>399.894996</v>
       </c>
       <c r="I10">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J10">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N10">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q10">
-        <v>33180.55815122395</v>
+        <v>31005.26129389986</v>
       </c>
       <c r="R10">
-        <v>298625.0233610156</v>
+        <v>279047.3516450988</v>
       </c>
       <c r="S10">
-        <v>0.2339064516018053</v>
+        <v>0.2277433680966712</v>
       </c>
       <c r="T10">
-        <v>0.2339064516018054</v>
+        <v>0.2277433680966713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>399.894996</v>
       </c>
       <c r="I11">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J11">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N11">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q11">
-        <v>4575.200604278202</v>
+        <v>1151.625340784056</v>
       </c>
       <c r="R11">
-        <v>41176.80543850382</v>
+        <v>10364.6280670565</v>
       </c>
       <c r="S11">
-        <v>0.03225289140211988</v>
+        <v>0.008459049301649943</v>
       </c>
       <c r="T11">
-        <v>0.03225289140211989</v>
+        <v>0.008459049301649946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>399.894996</v>
       </c>
       <c r="I12">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J12">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N12">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q12">
-        <v>62771.9885539925</v>
+        <v>71113.00313486769</v>
       </c>
       <c r="R12">
-        <v>564947.8969859326</v>
+        <v>640017.0282138091</v>
       </c>
       <c r="S12">
-        <v>0.4425113355759482</v>
+        <v>0.5223473105382374</v>
       </c>
       <c r="T12">
-        <v>0.4425113355759483</v>
+        <v>0.5223473105382376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>399.894996</v>
       </c>
       <c r="I13">
-        <v>0.983026477332136</v>
+        <v>0.9539217628950485</v>
       </c>
       <c r="J13">
-        <v>0.9830264773321362</v>
+        <v>0.9539217628950488</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N13">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q13">
-        <v>36847.91589146519</v>
+        <v>20648.47694502601</v>
       </c>
       <c r="R13">
-        <v>331631.2430231868</v>
+        <v>185836.2925052341</v>
       </c>
       <c r="S13">
-        <v>0.2597595018086356</v>
+        <v>0.151669538951826</v>
       </c>
       <c r="T13">
-        <v>0.2597595018086357</v>
+        <v>0.151669538951826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H14">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I14">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J14">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N14">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q14">
-        <v>8.042426246407665</v>
+        <v>4.745455942598222</v>
       </c>
       <c r="R14">
-        <v>72.38183621766899</v>
+        <v>42.70910348338401</v>
       </c>
       <c r="S14">
-        <v>5.669510973844337E-05</v>
+        <v>3.485686217178613E-05</v>
       </c>
       <c r="T14">
-        <v>5.669510973844337E-05</v>
+        <v>3.485686217178614E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H15">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I15">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J15">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q15">
-        <v>0.121314464425</v>
+        <v>0.02466842163333334</v>
       </c>
       <c r="R15">
-        <v>1.091830179825</v>
+        <v>0.2220157947</v>
       </c>
       <c r="S15">
-        <v>8.552067078648123E-07</v>
+        <v>1.811972934254694E-07</v>
       </c>
       <c r="T15">
-        <v>8.552067078648124E-07</v>
+        <v>1.811972934254694E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H16">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I16">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J16">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N16">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q16">
-        <v>130.82438846257</v>
+        <v>24.85817260378978</v>
       </c>
       <c r="R16">
-        <v>1177.41949616313</v>
+        <v>223.723553434108</v>
       </c>
       <c r="S16">
-        <v>0.0009222469480106415</v>
+        <v>0.0001825910738133116</v>
       </c>
       <c r="T16">
-        <v>0.0009222469480106416</v>
+        <v>0.0001825910738133117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H17">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I17">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J17">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N17">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q17">
-        <v>18.03911249534533</v>
+        <v>0.9233046360986666</v>
       </c>
       <c r="R17">
-        <v>162.352012458108</v>
+        <v>8.309741724888001</v>
       </c>
       <c r="S17">
-        <v>0.0001271667816617596</v>
+        <v>6.781962119627502E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001271667816617596</v>
+        <v>6.781962119627504E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H18">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I18">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J18">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N18">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q18">
-        <v>247.4975549756563</v>
+        <v>57.01417219303289</v>
       </c>
       <c r="R18">
-        <v>2227.477994780907</v>
+        <v>513.127549737296</v>
       </c>
       <c r="S18">
-        <v>0.001744734811290178</v>
+        <v>0.0004187869755846742</v>
       </c>
       <c r="T18">
-        <v>0.001744734811290178</v>
+        <v>0.0004187869755846743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.525569</v>
+        <v>0.1068706666666667</v>
       </c>
       <c r="H19">
-        <v>1.576707</v>
+        <v>0.320612</v>
       </c>
       <c r="I19">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516286</v>
       </c>
       <c r="J19">
-        <v>0.003875879277056321</v>
+        <v>0.0007647976776516288</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N19">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q19">
-        <v>145.2840558212046</v>
+        <v>16.554719505164</v>
       </c>
       <c r="R19">
-        <v>1307.556502390842</v>
+        <v>148.992475546476</v>
       </c>
       <c r="S19">
-        <v>0.001024180419647433</v>
+        <v>0.0001215996066688037</v>
       </c>
       <c r="T19">
-        <v>0.001024180419647433</v>
+        <v>0.0001215996066688037</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H20">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I20">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J20">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N20">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q20">
-        <v>13.19892631468267</v>
+        <v>102.9012717284789</v>
       </c>
       <c r="R20">
-        <v>118.790336832144</v>
+        <v>926.1114455563101</v>
       </c>
       <c r="S20">
-        <v>9.304587358507808E-05</v>
+        <v>0.000755842112818617</v>
       </c>
       <c r="T20">
-        <v>9.304587358507808E-05</v>
+        <v>0.000755842112818617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H21">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I21">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J21">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q21">
-        <v>0.1990967188</v>
+        <v>0.5349142397083334</v>
       </c>
       <c r="R21">
-        <v>1.7918704692</v>
+        <v>4.814228157375001</v>
       </c>
       <c r="S21">
-        <v>1.403532960712193E-06</v>
+        <v>3.929112850857158E-06</v>
       </c>
       <c r="T21">
-        <v>1.403532960712194E-06</v>
+        <v>3.929112850857159E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H22">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I22">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J22">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N22">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q22">
-        <v>214.70404708432</v>
+        <v>539.0288319430661</v>
       </c>
       <c r="R22">
-        <v>1932.33642375888</v>
+        <v>4851.259487487595</v>
       </c>
       <c r="S22">
-        <v>0.001513556871742608</v>
+        <v>0.00395933582124273</v>
       </c>
       <c r="T22">
-        <v>0.001513556871742609</v>
+        <v>0.003959335821242731</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H23">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I23">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J23">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N23">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q23">
-        <v>29.60511036264533</v>
+        <v>20.02109436829667</v>
       </c>
       <c r="R23">
-        <v>266.445993263808</v>
+        <v>180.18984931467</v>
       </c>
       <c r="S23">
-        <v>0.000208701320895374</v>
+        <v>0.0001470612171655613</v>
       </c>
       <c r="T23">
-        <v>0.000208701320895374</v>
+        <v>0.0001470612171655613</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H24">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I24">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J24">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N24">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q24">
-        <v>406.1836429829813</v>
+        <v>1236.304982319016</v>
       </c>
       <c r="R24">
-        <v>3655.652786846832</v>
+        <v>11126.74484087114</v>
       </c>
       <c r="S24">
-        <v>0.002863392900017839</v>
+        <v>0.009081047826016025</v>
       </c>
       <c r="T24">
-        <v>0.00286339290001784</v>
+        <v>0.009081047826016026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8625440000000001</v>
+        <v>2.317401666666667</v>
       </c>
       <c r="H25">
-        <v>2.587632</v>
+        <v>6.952205</v>
       </c>
       <c r="I25">
-        <v>0.006360946736107471</v>
+        <v>0.01658400259053947</v>
       </c>
       <c r="J25">
-        <v>0.006360946736107472</v>
+        <v>0.01658400259053948</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N25">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q25">
-        <v>238.4347072301547</v>
+        <v>358.975346267135</v>
       </c>
       <c r="R25">
-        <v>2145.912365071392</v>
+        <v>3230.778116404215</v>
       </c>
       <c r="S25">
-        <v>0.001680846236905859</v>
+        <v>0.002636786500445681</v>
       </c>
       <c r="T25">
-        <v>0.001680846236905859</v>
+        <v>0.002636786500445681</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H26">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I26">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J26">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N26">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q26">
-        <v>7.802613351573776</v>
+        <v>34.40332708071422</v>
       </c>
       <c r="R26">
-        <v>70.22352016416399</v>
+        <v>309.6299437264279</v>
       </c>
       <c r="S26">
-        <v>5.500454796358417E-05</v>
+        <v>0.0002527032270047277</v>
       </c>
       <c r="T26">
-        <v>5.500454796358417E-05</v>
+        <v>0.0002527032270047277</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H27">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I27">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J27">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q27">
-        <v>0.1176970519666667</v>
+        <v>0.1788396706833333</v>
       </c>
       <c r="R27">
-        <v>1.0592734677</v>
+        <v>1.60955703615</v>
       </c>
       <c r="S27">
-        <v>8.29705747083726E-07</v>
+        <v>1.313633468998863E-06</v>
       </c>
       <c r="T27">
-        <v>8.297057470837261E-07</v>
+        <v>1.313633468998863E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H28">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I28">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J28">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N28">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q28">
-        <v>126.9234045615867</v>
+        <v>180.2153160964317</v>
       </c>
       <c r="R28">
-        <v>1142.31064105428</v>
+        <v>1621.937844867886</v>
       </c>
       <c r="S28">
-        <v>0.0008947469494308671</v>
+        <v>0.001323738015989002</v>
       </c>
       <c r="T28">
-        <v>0.0008947469494308672</v>
+        <v>0.001323738015989003</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H29">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I29">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J29">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N29">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q29">
-        <v>17.50121365049422</v>
+        <v>6.693719586710666</v>
       </c>
       <c r="R29">
-        <v>157.510922854448</v>
+        <v>60.24347628039599</v>
       </c>
       <c r="S29">
-        <v>0.0001233748620217582</v>
+        <v>4.916746965367691E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001233748620217583</v>
+        <v>4.916746965367692E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H30">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I30">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J30">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N30">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q30">
-        <v>240.1175550472102</v>
+        <v>413.3379885767368</v>
       </c>
       <c r="R30">
-        <v>2161.057995424891</v>
+        <v>3720.041897190632</v>
       </c>
       <c r="S30">
-        <v>0.001692709478014682</v>
+        <v>0.00303609715746179</v>
       </c>
       <c r="T30">
-        <v>0.001692709478014682</v>
+        <v>0.003036097157461791</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5098973333333333</v>
+        <v>0.7747846666666666</v>
       </c>
       <c r="H31">
-        <v>1.529692</v>
+        <v>2.324354</v>
       </c>
       <c r="I31">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="J31">
-        <v>0.003760306463457597</v>
+        <v>0.005544585172233957</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N31">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q31">
-        <v>140.9519066746391</v>
+        <v>120.017430728438</v>
       </c>
       <c r="R31">
-        <v>1268.567160071752</v>
+        <v>1080.156876555942</v>
       </c>
       <c r="S31">
-        <v>0.000993640920279621</v>
+        <v>0.0008815656686557601</v>
       </c>
       <c r="T31">
-        <v>0.0009936409202796214</v>
+        <v>0.0008815656686557602</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H32">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I32">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J32">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N32">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q32">
-        <v>4.851381962496554</v>
+        <v>40.79802626392711</v>
       </c>
       <c r="R32">
-        <v>43.66243766246899</v>
+        <v>367.182236375344</v>
       </c>
       <c r="S32">
-        <v>3.41998327767947E-05</v>
+        <v>0.0002996742980157134</v>
       </c>
       <c r="T32">
-        <v>3.419983277679471E-05</v>
+        <v>0.0002996742980157134</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H33">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I33">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J33">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q33">
-        <v>0.07317975775833334</v>
+        <v>0.2120813944666667</v>
       </c>
       <c r="R33">
-        <v>0.658617819825</v>
+        <v>1.9087325502</v>
       </c>
       <c r="S33">
-        <v>5.15880938117975E-07</v>
+        <v>1.557804355481443E-06</v>
       </c>
       <c r="T33">
-        <v>5.158809381179751E-07</v>
+        <v>1.557804355481443E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H34">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I34">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J34">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N34">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q34">
-        <v>78.91636913990332</v>
+        <v>213.7127372016809</v>
       </c>
       <c r="R34">
-        <v>710.2473222591299</v>
+        <v>1923.414634815128</v>
       </c>
       <c r="S34">
-        <v>0.0005563211985369236</v>
+        <v>0.001569787079493037</v>
       </c>
       <c r="T34">
-        <v>0.0005563211985369237</v>
+        <v>0.001569787079493037</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H35">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I35">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J35">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N35">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q35">
-        <v>10.88161983685644</v>
+        <v>7.937910971845333</v>
       </c>
       <c r="R35">
-        <v>97.93457853170798</v>
+        <v>71.44119874660799</v>
       </c>
       <c r="S35">
-        <v>7.671001410279221E-05</v>
+        <v>5.830644558171339E-05</v>
       </c>
       <c r="T35">
-        <v>7.671001410279222E-05</v>
+        <v>5.830644558171339E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H36">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I36">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J36">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N36">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q36">
-        <v>149.2963860883674</v>
+        <v>490.1669560699485</v>
       </c>
       <c r="R36">
-        <v>1343.667474795307</v>
+        <v>4411.502604629536</v>
       </c>
       <c r="S36">
-        <v>0.00105246535479437</v>
+        <v>0.003600430018857034</v>
       </c>
       <c r="T36">
-        <v>0.001052465354794371</v>
+        <v>0.003600430018857034</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3170356666666667</v>
+        <v>0.9187973333333334</v>
       </c>
       <c r="H37">
-        <v>0.9511069999999999</v>
+        <v>2.756392</v>
       </c>
       <c r="I37">
-        <v>0.002338022163638016</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="J37">
-        <v>0.002338022163638017</v>
+        <v>0.006575181840659514</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N37">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q37">
-        <v>87.63878290636022</v>
+        <v>142.325603552824</v>
       </c>
       <c r="R37">
-        <v>788.749046157242</v>
+        <v>1280.930431975416</v>
       </c>
       <c r="S37">
-        <v>0.0006178098824890171</v>
+        <v>0.001045426194356534</v>
       </c>
       <c r="T37">
-        <v>0.0006178098824890174</v>
+        <v>0.001045426194356534</v>
       </c>
     </row>
   </sheetData>
